--- a/data.xlsx
+++ b/data.xlsx
@@ -24,67 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="212">
-  <si>
-    <t>GS1601 영어 I: 신입생 영어 3:0:2 ○ ○</t>
-  </si>
-  <si>
-    <t>GS1603 영어 I: 발표와 토론 3:0:2 ○ ○</t>
-  </si>
-  <si>
-    <t>GS1511 글쓰기의 기초: 논리적 글쓰기 3:0:3 ○ ○</t>
-  </si>
-  <si>
-    <t>GS1512 글쓰기의 기초: 학술적 글쓰기 3:0:3 ○ ○</t>
-  </si>
-  <si>
-    <t>GS1513 글쓰기의 기초: 창의적 글쓰기 3:0:3 ○ ○</t>
-  </si>
-  <si>
-    <t>GS1531 심화 글쓰기: 과학 글쓰기 3:0:3 ○</t>
-  </si>
-  <si>
-    <t>GS1532 심화 글쓰기: 고전 읽기와 글쓰기 3:0:3 ○</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS1601 영어 Ⅰ: 신입생 영어 3:0:2 ○ ○ GS1603 영어 Ⅰ: 발표와 토론 3:0:2 ○ ○ GS2652 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS1601 영어 I: 신입생 영어 3:0:2 ○ ○ GS1603 영어 I: 발표와 토론 3:0:2 ○ ○ GS2652 </t>
-  </si>
-  <si>
-    <t>GS1511 글쓰기의 기초: 논리적 글쓰기 3:0:3 ○</t>
-  </si>
-  <si>
-    <t>GS1513 글쓰기의 기초: 창의적 글쓰기 3:0:3 ○</t>
-  </si>
-  <si>
-    <t>GS1532 심화 글쓰기: 고전 읽기와 글쓰기 3:0:3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS1601 영어 I: 신입생 영어 3:0:2 ○ ○ GS1603 영어 I: 발표와 토론 3:0:2 ○ ○ GS1604 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS1604 </t>
-  </si>
-  <si>
-    <t>GS2652</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS1511 글쓰기의 기초: 논리적 글쓰기 3:0:3 ○ ○ GS1512 글쓰기의 기초: 학술적 글쓰기 3:0:3 ○ ○ GS1513 글쓰기의 기초: 창의적 글쓰기 3:0:3 ○ ○ GS1531 심화 글쓰기: 과학 글쓰기 3:0:3 ○ GS1532 심화 글쓰기: 고전 읽기와 글쓰기 3:0:3 ○ GS1533 </t>
-  </si>
-  <si>
-    <t>GS1533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS1511 글쓰기의 기초: 논리적 글쓰기 3:0:3 ○ GS1512 글쓰기의 기초: 학술적 글쓰기 3:0:3 ○ ○ GS1513 글쓰기의 기초: 창의적 글쓰기 3:0:3 ○ ○ GS1531 심화 글쓰기: 과학 글쓰기 3:0:3 ○ GS1532 심화 글쓰기: 고전 읽기와 글쓰기 3:0:3 GS1533 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS1533 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GS1511 글쓰기의 기초: 논리적 글쓰기 3:0:3 ○ GS1512 글쓰기의 기초: 학술적 글쓰기 3:0:3 ○ ○ GS1513 글쓰기의 기초: 창의적 글쓰기 3:0:3 ○ ○ GS1531 심화 글쓰기: 과학 글쓰기 3:0:3 ○ ○ GS1532 심화 글쓰기: 고전 읽기와 글쓰기 3:0:3 GS1533 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="190">
   <si>
     <t>HUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -596,14 +536,6 @@
   </si>
   <si>
     <t xml:space="preserve">MC9101 학사논문연구 3 ○ ○ MC9102 학사논문연구 I 3 ○ ○ MC9103 학사논문연구 II 3 ○ ○ MC9104 </t>
-  </si>
-  <si>
-    <t>fundamental_english</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fundamental_writing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>physics_elective</t>
@@ -1017,762 +949,684 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA30"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O1" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S1" t="s">
+        <v>183</v>
+      </c>
+      <c r="T1" t="s">
+        <v>184</v>
+      </c>
+      <c r="U1" t="s">
+        <v>185</v>
+      </c>
+      <c r="V1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W1" t="s">
+        <v>187</v>
+      </c>
+      <c r="X1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y1" t="s">
         <v>189</v>
       </c>
-      <c r="B1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" t="s">
+        <v>162</v>
+      </c>
+      <c r="T2" t="s">
+        <v>163</v>
+      </c>
+      <c r="U2" t="s">
+        <v>164</v>
+      </c>
+      <c r="W2" t="s">
+        <v>168</v>
+      </c>
+      <c r="X2" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" t="s">
+        <v>84</v>
+      </c>
+      <c r="O3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q3" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" t="s">
-        <v>192</v>
-      </c>
-      <c r="K1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M1" t="s">
-        <v>201</v>
-      </c>
-      <c r="N1" t="s">
-        <v>194</v>
-      </c>
-      <c r="O1" t="s">
-        <v>202</v>
-      </c>
-      <c r="P1" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>203</v>
-      </c>
-      <c r="R1" t="s">
-        <v>196</v>
-      </c>
-      <c r="S1" t="s">
-        <v>204</v>
-      </c>
-      <c r="T1" t="s">
-        <v>197</v>
-      </c>
-      <c r="U1" t="s">
-        <v>205</v>
-      </c>
-      <c r="V1" t="s">
-        <v>206</v>
-      </c>
-      <c r="W1" t="s">
-        <v>207</v>
-      </c>
-      <c r="X1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="R3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
         <v>97</v>
       </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="F4" t="s">
         <v>99</v>
       </c>
-      <c r="M2" t="s">
-        <v>100</v>
-      </c>
-      <c r="N2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" t="s">
-        <v>102</v>
-      </c>
-      <c r="P2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R2" t="s">
-        <v>110</v>
-      </c>
-      <c r="S2" t="s">
-        <v>111</v>
-      </c>
-      <c r="T2" t="s">
-        <v>116</v>
-      </c>
-      <c r="U2" t="s">
-        <v>182</v>
-      </c>
-      <c r="V2" t="s">
-        <v>183</v>
-      </c>
-      <c r="W2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G4" t="s">
         <v>118</v>
-      </c>
-      <c r="I3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" t="s">
-        <v>98</v>
-      </c>
-      <c r="L3" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" t="s">
-        <v>100</v>
-      </c>
-      <c r="N3" t="s">
-        <v>126</v>
-      </c>
-      <c r="O3" t="s">
-        <v>127</v>
-      </c>
-      <c r="P3" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>129</v>
-      </c>
-      <c r="R3" t="s">
-        <v>130</v>
-      </c>
-      <c r="S3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T3" t="s">
-        <v>136</v>
-      </c>
-      <c r="X3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>117</v>
       </c>
       <c r="H4" t="s">
         <v>119</v>
       </c>
       <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N4" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" t="s">
         <v>138</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L5" t="s">
         <v>139</v>
       </c>
-      <c r="K4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="M5" t="s">
+        <v>140</v>
+      </c>
+      <c r="N5" t="s">
+        <v>86</v>
+      </c>
+      <c r="O5" t="s">
+        <v>142</v>
+      </c>
+      <c r="P5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>95</v>
+      </c>
+      <c r="R6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" t="s">
+        <v>137</v>
+      </c>
+      <c r="N8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>150</v>
+      </c>
+      <c r="N10" t="s">
         <v>141</v>
       </c>
-      <c r="N4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" t="s">
-        <v>143</v>
-      </c>
-      <c r="P4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="Q10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>151</v>
+      </c>
+      <c r="N11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
         <v>129</v>
       </c>
-      <c r="R4" t="s">
-        <v>145</v>
-      </c>
-      <c r="S4" t="s">
-        <v>113</v>
-      </c>
-      <c r="T4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="J12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C25" t="s">
         <v>65</v>
       </c>
-      <c r="G5" t="s">
-        <v>148</v>
-      </c>
-      <c r="H5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" t="s">
-        <v>140</v>
-      </c>
-      <c r="M5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N5" t="s">
-        <v>159</v>
-      </c>
-      <c r="O5" t="s">
-        <v>160</v>
-      </c>
-      <c r="P5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>162</v>
-      </c>
-      <c r="R5" t="s">
-        <v>163</v>
-      </c>
-      <c r="S5" t="s">
-        <v>114</v>
-      </c>
-      <c r="T5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C26" t="s">
         <v>66</v>
       </c>
-      <c r="G6" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" t="s">
-        <v>168</v>
-      </c>
-      <c r="K6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" t="s">
-        <v>176</v>
-      </c>
-      <c r="O6" t="s">
-        <v>177</v>
-      </c>
-      <c r="P6" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>162</v>
-      </c>
-      <c r="R6" t="s">
-        <v>179</v>
-      </c>
-      <c r="S6" t="s">
-        <v>115</v>
-      </c>
-      <c r="T6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" t="s">
         <v>40</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C27" t="s">
         <v>67</v>
       </c>
-      <c r="H7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P7" t="s">
-        <v>108</v>
-      </c>
-      <c r="S7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="H8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" t="s">
-        <v>128</v>
-      </c>
-      <c r="S8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="s">
-        <v>150</v>
-      </c>
-      <c r="L9" t="s">
-        <v>169</v>
-      </c>
-      <c r="P9" t="s">
-        <v>144</v>
-      </c>
-      <c r="S9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
         <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" t="s">
-        <v>170</v>
-      </c>
-      <c r="P10" t="s">
-        <v>161</v>
-      </c>
-      <c r="S10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" t="s">
-        <v>151</v>
-      </c>
-      <c r="L11" t="s">
-        <v>171</v>
-      </c>
-      <c r="P11" t="s">
-        <v>178</v>
-      </c>
-      <c r="S11" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s">
-        <v>149</v>
-      </c>
-      <c r="L12" t="s">
-        <v>172</v>
-      </c>
-      <c r="S12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>150</v>
-      </c>
-      <c r="L13" t="s">
-        <v>173</v>
-      </c>
-      <c r="S13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" t="s">
-        <v>120</v>
-      </c>
-      <c r="L14" t="s">
-        <v>171</v>
-      </c>
-      <c r="S14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s">
-        <v>151</v>
-      </c>
-      <c r="L15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="E30" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12940" windowHeight="4120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12945" windowHeight="4125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="364">
   <si>
     <t>HUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +152,6 @@
     <t xml:space="preserve">GS2762 법과 정의: 이념과 현실 3:0:3 GS2763 현대법학의 이해 3:0:3 GS2765 헌법과 국가 3:0:3 GS2781 국제관계론 Ⅰ: 근대 국제정치체제의 상승과 쇠퇴 3:0:3 ○ GS2782 국제관계론 Ⅱ: 세계정치의 전지구화의 과정과 쟁점 3:0:3 GS2783 과학기술과 전쟁 3:0:3 ○ GS2784 고전 정치사상의 이해 3:0:3 GS2785 국가와 시민사회론 3:0:3 ○ GS2786 정치경제론 3:0:3 ○ GS2787 한국정치론 3:0:3 ○ GS2788 민주주의론 3:0:3 ○ GS2803 과학기술과 사회 3:0:3 ○ GS2812 생명윤리와 법 3:0:3 GS2831 과학기술학의 이해(1): 과학사회논쟁의 쟁점과 윤리 3:0:3 ○ GS2832 테크노사이언스의 역사와 쟁점 3:0:3 ○ GS2833 과학기술학의 이해(2): 비판적 디자인 3:0:3 GS2834 역사 속의 과학 3:0:3 ○ GS2835 과학기술학 주제연구: 행위자-연결망 이론 3:0:3 GS3631 마음과 컴퓨터 3:0:3 GS3632 합리적 판단과 선택 3:0:3 GS3633 과학철학 특강 3:0:3 GS3663 종교와 과학 3:0:3 GS3721 교육의 경제학 3:0:3 ○ GS3751 소셜네트워크와 기업행동 3:0:3 ○ GS3752 전략경영 II 3:0:3 ○ GS3753 기업집단의 이해 3:0:3 ○ GS3762 현대법사상 강독 3:0:3 GS3763 현대 법철학의 주제들 3:0:3 GS3764 뇌와 인지 3:0:3 ○ GS3861 신경과학과 법 3:0:3 GS4741 기술정보사회의 심리학 3:0:3 GS4761 인공지능 로봇의 윤리 3:0:3 GS4762 </t>
   </si>
   <si>
-    <t>GSC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">GS2541 서양음악의 이해 3:0:3 ○ GS2542 오페라와 판소리 3:0:3 ○ GS2543 현대예술의 이해 3:0:3 ○ GS2601 동아시아의 전통과 현대 3:0:3 ○ GS2791 유라시아 깊이 읽기 3:0:3 ○ GS2792 커뮤니케이션론 Ⅰ 3:0:3 ○ GS2804 에너지와 인간 2:0:2 GS2808 음식과 약 2:0:2 　 ○ GS2810 우주와 인간의 역사 2:0:2 ○ GS2815 문화공학 Ⅰ 3:0:3 ○ GS2817 문화와 도시재생 연구 3:0:3 ○ GS2911 중국어 1 2:0:2 GS2912 중국어 2 2:0:2 GS2913 중국의 문화와 언어(한시와 한문 입문) 2:0:2 GS2931 독일어 1 2:0:2 ○ GS2932 독일어 2 2:0:2 ○ GS3901 </t>
   </si>
   <si>
@@ -243,16 +239,6 @@
     <t xml:space="preserve">GS2541 서양음악의 이해 3:0:3 ○ GS2542 오페라와 판소리 3:0:3 ○ GS2543 현대 예술의 이해 3:0:3 ○ GS2544 문화콘텐츠의 이해 3:0:3 ○ GS2791 유라시아 깊이 읽기 3:0:3 GS2792 커뮤니케이션론 Ⅰ 3:0:3 GS2793 커뮤니케이션론 Ⅱ 3:0:3 GS2804 에너지와 인간 2:0:2 GS2810 우주와 인간의 역사 2:0:2 GS2815 문화공학 Ⅰ 3:0:3 GS2816 문화공학 Ⅱ 3:0:3 GS2817 문화와 도시재생 연구 3:0:3 GS2818 융합사고론 3:0:3 GS2819 이미지론: 보는 법 3:0:3 GS2821 대중강연: 융합시대의 리더 육성 프로젝트 2:0:2 GS2822 AI와 나 2:0:2 ○ GS2931 독일어 1 2:0:2 ○ GS2932 독일어 2 2:0:2 ○ GS3566 </t>
   </si>
   <si>
-    <t xml:space="preserve">GS9301 </t>
-  </si>
-  <si>
-    <t>seminar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">GS1901 </t>
-  </si>
-  <si>
     <t>PS3101 전자기학 및 연습 II 3:1:3 ○ PS3103 양자물리 및 연습 I 3:1:3 ○ PS3104 양자물리 및 연습 II 3:1:3 ○ PS3105 열역학 및 통계물리 3:0:3 ○ PS3106 물리실험 I 1:4:3 ○ PS3107</t>
   </si>
   <si>
@@ -517,27 +503,6 @@
     <t xml:space="preserve">EV2208 분석화학 3:0:3 ○ EV2209 환경모니터링 3:0:3 EV2210 유체역학 3:0:3 EV2211 (MOOC 지정)기후변화의 이해 3:0:3 EV3205 환경 생태학 3:0:3 ○ EV3213 유전학 3:0:3 ○ EV3214 생유기화학 3:0:3 ○ EV3215 상하수도 공학 3:0:3 ○ EV3216 생화학 II 3:0:3 ○ EV3217 미생물학 3:0:3 ○ EV3219 수리물리 I 3:0:3 ○ EV3220 에너지화학 3:0:3 EV4201 지구환경 시스템모델링 3:0:3 ○ EV4202 생지화학 3:0:3 ○ EV4203 해양물리 3:0:3 EV4204 환경공정 단위조작 3:0:3 ○ EV4205 환경공정 실험 1:4:3 ○ EV4209 전기화학 3:0:3 EV4211 대기오염공학 3:0:3 ○ EV4212 수화학 3:0:3 EV4213 환경 독성학 기초 3:0:3 ○ EV4214 대기화학과 기후변화Ⅰ 3:0:3 ○ EV4215 지구·환경과학 통계 3:0:3 ○ EV4216 환경화학 3:0:3 EV4217 대기화학과 기후변화 II 3:0:3 ○ EV4218 지구환경 열역학 3:0:3 ○ EV4221 대기오염물질 측정 및 실습 2:2:3 ○ EV4222 대기질 연구 동향 1:0:1 EV4223 기기분석 3:0:3 EV4224 </t>
   </si>
   <si>
-    <t>PS9101 학사논문연구 3 ○ ○ PS9102 학사논문연구 I 3 18-1학기 18-2학기 PS9103</t>
-  </si>
-  <si>
-    <t>CH9101 학사논문연구 3 ○ ○ CH9102 학사논문연구 I 3 18-1학기 18-2학기 CH9103</t>
-  </si>
-  <si>
-    <t>BS9101 학사논문연구 3 ○ ○ BS9102 학사논문연구 I 3 18-1학기 18-2학기 BS9103</t>
-  </si>
-  <si>
-    <t>EC9101 학사논문연구 3 ○ ○ EC9102 학사논문연구 I 3 18-1학기 18-2학기 EC9103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA9101 학사논문연구 3 ○ ○ MA9102 학사논문연구 I 3 18-1학기 18-2학기 MA9103 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EV9101 학사논문연구 3 ○ ○ EV9102 학사논문연구 I 3 18-1학기 18-2학기 EV9103 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC9101 학사논문연구 3 ○ ○ MC9102 학사논문연구 I 3 ○ ○ MC9103 학사논문연구 II 3 ○ ○ MC9104 </t>
-  </si>
-  <si>
     <t>physics_elective</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,32 +559,643 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>physics_research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chemical_research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>biology_research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eecs_research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mechanics_research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>material_research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>environment_research</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>physics_prerequisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chemical_prerequisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biology_prerequisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eecs_prerequisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanics_prerequisite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GS2006 수학적 사고와 증명 3:0:3 GS3001 해석학과 응용 3:0:3 GS3002 복소함수학 및 응용 3:0:3 　 GS3004 현대대수학 3:0:3 GS3006 </t>
+  </si>
+  <si>
+    <t>GS3007 기하학 Ⅰ 3:0:3 ○ GS3009 이산수학 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>GS4005 과학계산 프로그래밍 3:0:3</t>
+  </si>
+  <si>
+    <t>○ ※ 3년에 1회 개설</t>
+  </si>
+  <si>
+    <t>GS4008 몬테카를로 방법론과 응용 3:0:3</t>
+  </si>
+  <si>
+    <t>GS4015 과학계산 3:0:3</t>
+  </si>
+  <si>
+    <t>물리</t>
+  </si>
+  <si>
+    <t>GS1102 일반물리학 및 연습 Ⅱ 3:1:3 ○ GS1104 고급일반물리학 및 연습 Ⅱ 3:1:3 ○ GS1112 일반물리학 실험 Ⅱ 0:2:1 ○</t>
+  </si>
+  <si>
+    <t>화학</t>
+  </si>
+  <si>
+    <t>GS1202 일반화학 및 연습 Ⅱ 3:1:3 ○ GS1204 고급일반화학 및 연습 Ⅱ 3:1:3 ○ GS1212 일반화학 실험 Ⅱ 0:2:1 ○</t>
+  </si>
+  <si>
+    <t>생물</t>
+  </si>
+  <si>
+    <t>GS2311 생명과학 실험이론 3:1:3 ○ GS3301 세포물리생물학 3:0:2 GS3311 유전자 발현 및 분석 3:1:3 ○ GS4301 진화생물학 및 실험 3:2:2 전산 GS2406 전기전자컴퓨터개론 3:0:3 ○ 기계 GS2433 창의공학 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>GS2806 우주와 생명 3:0:3 ○ ○ GS2809 아름다운 지구 3:0:3 ○ GS2811 인간과 바다 3:0:3</t>
+  </si>
+  <si>
+    <t>기초전공</t>
+  </si>
+  <si>
+    <t>물리학</t>
+  </si>
+  <si>
+    <t>GS2102 전자기학 및 연습 I 3:1:3 ○ ○ GS2103 고전역학 및 연습 3:1:3 ○</t>
+  </si>
+  <si>
+    <t>GS2201 유기화학 I 3:0:3 ○ ○ GS2202 물리화학 I 3:0:3 ○ 생물 GS2302 분자생물학(GS2201 유기화학I) 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>전산</t>
+  </si>
+  <si>
+    <t>GS2401 회로이론 3:0:3 ○ GS2402 자료 구조 및 알고리즘 3:0:3 ○ GS2403 디지털 설계 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>기계</t>
+  </si>
+  <si>
+    <t>GS2431 현대기계공학 2:0:2 ○ GS2432 컴퓨터이용 설계 및 생산 2:2:3 ○ 지구환경 GS2231 지구환경과학(GS2201 유기화학I) 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>언어선택 영어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS2651 영어 토론과 논증 3:0:2 ○ ○ GS3651 </t>
+  </si>
+  <si>
+    <t>GS2006 수학적 사고와 증명 3:0:3</t>
+  </si>
+  <si>
+    <t>GS2007 수학적 사고의 기초 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>GS3001 해석학과 응용 3:0:3</t>
+  </si>
+  <si>
+    <t>GS3012 수학적 모델링 3:3:2 　</t>
+  </si>
+  <si>
+    <t>GS3015 확률과 통계 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>GS4002 복소함수학 및 응용 3:0:3</t>
+  </si>
+  <si>
+    <t>GS4004 현대대수학 3:0:3 ○ GS4005 과학계산 프로그래밍 3:0:3 ※ 3년에 1회 개설</t>
+  </si>
+  <si>
+    <t>GS4006 정수론과 응용 3:0:3</t>
+  </si>
+  <si>
+    <t>GS4007 기하학 Ⅰ 3:0:3 GS4008 몬테카를로 방법론과 응용 3:0:3 ※ 3년에 1회 개설</t>
+  </si>
+  <si>
+    <t>GS4009 그래프 이론 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>GS4010 이산수학 3:0:3 ○ GS4015 과학계산 3:0:3 ※ 3년에 1회 개설</t>
+  </si>
+  <si>
+    <t>GS1102 일반물리학 및 연습 Ⅱ 3:1:3 ○</t>
+  </si>
+  <si>
+    <t>GS1104 고급일반물리학 및 연습 Ⅱ 3:1:3 ○</t>
+  </si>
+  <si>
+    <t>GS1112 일반물리학 실험 Ⅱ 0:2:1 ○</t>
+  </si>
+  <si>
+    <t>GS2104 물리학의 역사와 철학 3:0:3</t>
+  </si>
+  <si>
+    <t>GS1202 일반화학 및 연습 Ⅱ 3:1:3 ○</t>
+  </si>
+  <si>
+    <t>GS1204 고급일반화학 및 연습 Ⅱ 3:1:3 ○</t>
+  </si>
+  <si>
+    <t>GS1212 일반화학 실험 Ⅱ 0:2:1 ○</t>
+  </si>
+  <si>
+    <t>생명</t>
+  </si>
+  <si>
+    <t>GS2303 현대 생명과학의 이해 1:0:1 ○</t>
+  </si>
+  <si>
+    <t>GS2311 생명과학 실험이론 3:1:3 ○</t>
+  </si>
+  <si>
+    <t>GS3301 세포물리생물학 3:0:2</t>
+  </si>
+  <si>
+    <t>GS3311 유전자 발현 및 분석 3:1:3</t>
+  </si>
+  <si>
+    <t>GS4301 진화생물학 및 실험 3:2:2</t>
+  </si>
+  <si>
+    <t>전컴</t>
+  </si>
+  <si>
+    <t>GS2406 전기전자컴퓨터개론 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>GS2407</t>
+  </si>
+  <si>
+    <t>GS1431 현대기계공학 2:0:2 ○ GS2432 컴퓨터이용 설계 및 생산 2:2:3 ○ GS2433 창의공학 3:0:3 ○ 소재 GS2451 소재와 미래과학기술 1:0:1 ○</t>
+  </si>
+  <si>
+    <t>GS2304 의생명공학기술 입문 3:0:3 GS2806 우주와 생명 3:0:3 ○ ○ GS2809 아름다운 지구 3:0:3 GS2811 인간과 바다 3:0:3 GS2820 에너지와 미래사회 1:0:1 ○ GS4801 의학용어 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>GS2102 전자기학 및 연습 I 3:1:3 ○ GS2103 고전역학 및 연습 3:1:3 ○</t>
+  </si>
+  <si>
+    <t>GS2201 유기화학 I 3:0:3 ○ ○ GS2202 물리화학 I 3:0:3 ○ 생명 GS2302 분자생물학(GS2201 유기화학I) 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>GS2434 열역학 3:0:3 ○ GS2435 고체역학 3:0:3 ○ 지구환경 GS2471 지구환경과학(GS2201 유기화학I) 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>GS2651 영어 토론과 논증 3:0:2 ○ ○ GS3651</t>
+  </si>
+  <si>
+    <t>GS2006 수학적 사고와 증명 3:0:3 GS2007 수학적 사고의 기초 3:0:3 GS3001 해석학과 응용 3:0:3 ○ GS3012 수학적 모델링 3:3:2 GS3015 확률과 통계 3:0:3 GS4002 복소함수학 및 응용 3:0:3 ○ GS4003 편미분방정식과 응용 3:0:3 GS4004 현대대수학 3:0:3 ○ GS4005 과학계산 프로그래밍 3:0:3 ※ 3년에 1회 개설 GS4006 정수론과 응용 3:0:3 GS4007 기하학 Ⅰ 3:0:3 GS4008 몬테카를로 방법론과 응용 3:0:3 ※ 3년에 1회 개설 GS4009 그래프 이론 3:0:3 ○ GS4010 이산수학 3:0:3 ○ GS4015 과학계산 3:0:3 ※ 3년에 1회 개설 GS4016 위상수학 개론 3:0:3 GS4017 매스매티카와 기호계산 I 3:1:3 ○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS1102 일반물리학 및 연습 Ⅱ 3:1:3 ○ GS1104 고급일반물리학 및 연습 Ⅱ 3:1:3 ○ GS1112 일반물리학 실험 Ⅱ 0:2:1 ○ GS2104 </t>
+  </si>
+  <si>
+    <t>GS1202 일반화학 및 연습 Ⅱ 3:1:3 ○ GS1204 고급일반화학 및 연습 Ⅱ 3:1:3 ○ GS1212 일반화학 실험 Ⅱ 0:2:1 ○ GS2204 현대화학의 이해 1:0:1 ○ GS2206 목표지향적 화학 그룹스터디 1:3:2 ○</t>
+  </si>
+  <si>
+    <t>GS2303 현대 생명과학의 이해 1:0:1 ○ GS2311 생명과학 실험이론 3:1:3 ○ GS3301 세포물리생물학 3:0:2 GS3311 유전자 발현 및 분석 3:0:3 GS4301 진화생물학 및 실험 3:2:2</t>
+  </si>
+  <si>
+    <t>GS2406 전기전자컴퓨터개론 3:0:3 ○ GS2407 컴퓨터 프로그램의 구조와 해석 3:0:3 GS2408 객체 지향 프로그래밍 3:0:3 ○ 기계 GS1431 현대기계공학 2:0:2 소재 GS2451 소재와 미래과학기술 1:0:1 ○</t>
+  </si>
+  <si>
+    <t>환경</t>
+  </si>
+  <si>
+    <t>GS1471 지구·환경연구 현장실습 0:4:2 2018-여름 GS2472 기후변화: 대응 및 적응 3:0:3</t>
+  </si>
+  <si>
+    <t>GS2304 의생명공학기술 입문 3:0:3 ○ GS2806 우주와 생명 3:0:3 ○ GS2809 아름다운 지구 3:0:3</t>
+  </si>
+  <si>
+    <t>GS2811 인간과 바다 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>기초 전공1)</t>
+  </si>
+  <si>
+    <t>GS2201 유기화학 I 3:0:3 ○ ○ GS2202 물리화학 I 3:0:3 ○ 생명 GS2302 분자생물학 (GS2201 유기화학I) 3:0:3 ○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS2401 회로이론 3:0:3 ○ GS2402 </t>
+  </si>
+  <si>
+    <t>GS2403 디지털 설계 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>GS2434 열역학 3:0:3 ○ GS2435 고체역학 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>지구 환경 GS2471 지구환경과학 (GS2201 유기화학I) 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>언어 선택 영어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS1605 실용적 대화법 3:0:2 ○ GS2651 영어 토론과 논증 3:0:2 ○ GS2653 바른 논문쓰기(이해와 토론) 3:0:2 ○ GS3651 </t>
+  </si>
+  <si>
+    <t>GS2006 수학적 사고와 증명 3:0:3 GS2007 수학적 사고의 기초 3:0:3 GS3001 해석학과 응용 3:0:3 ○ GS3012 수학적 모델링 3:3:2 　 GS3015 확률과 통계 3:0:3 ○ GS4002 복소함수학 및 응용 3:0:3 ○ GS4003 편미분방정식과 응용 3:0:3 GS4004 현대대수학 3:0:3 ○ GS4005 과학계산 프로그래밍 3:0:3 ※ 3년에 1회 개설 GS4006 정수론과 응용 3:0:3 GS4007 기하학 Ⅰ 3:0:3 GS4008 몬테카를로 방법론과 응용 3:0:3 ※ 3년에 1회 개설 GS4009 그래프 이론 3:0:3 ○ GS4010 이산수학 3:0:3 ○ GS4015 과학계산 3:0:3 ※ 3년에 1회 개설 GS4016 위상수학 개론 3:0:3 GS4017 매스매티카와 기호계산 3:1:3 GS4018 수리과학 주제를 위한 매스매티카 3:1:3 ○</t>
+  </si>
+  <si>
+    <t>GS1102 일반물리학 및 연습 Ⅱ 3:1:3 ○ GS1104 고급일반물리학 및 연습 Ⅱ 3:1:3 ○ GS1112 일반물리학 실험 Ⅱ 0:2:1 ○ GS2104 물리학의 역사와 철학 3:0:3</t>
+  </si>
+  <si>
+    <t>GS2303 현대 생명과학의 이해 1:0:1 ○ GS2311 생명과학 실험이론 3:1:3 GS3301 세포물리생물학 3:0:2 GS3311 유전자 발현 및 분석 3:0:3 GS4301 진화생물학 및 실험 3:2:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS1402 전기전자컴퓨터개론 3:0:3 GS2407 컴퓨터 프로그램의 구조와 해석 3:0:3 GS2408 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GS1431 현대기계공학 2:0:2 소재 GS1451 소재와 미래과학기술 1:0:1</t>
+  </si>
+  <si>
+    <t>GS1471 지구·환경연구 현장실습 0:4:2 GS2472 기후변화: 대응 및 적응 3:0:3 GS2473 지구환경공학개론 1:0:1 ○</t>
+  </si>
+  <si>
+    <t>GS2806 우주와 생명 3:0:3 ○ GS2809 아름다운 지구 3:0:3 GS2811 인간과 바다 3:0:3</t>
+  </si>
+  <si>
+    <t>화학 GS2202 물리화학 I  ※ ‘물리화학 B’와 중복수강 불허 3:0:3 ○ 지구환경 GS2471 지구환경과학 3:0:3 ○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS1605 실용적 대화법 3:0:2 ○ GS2651 영어 토론과 논증 3:0:2 ○ GS2653 바른 논문쓰기(이해와 토론) 3:0:2 ○ GS2654 창의적 영어 표현법 3:0:2 ○ GS2655 디지털 시대의 저널리즘과 과학 기사 쓰기 3:0:2 ○ GS3651 영어 III. 이공계 논문쓰기 3:0:2 ○ SW선택 GS1491 </t>
+  </si>
+  <si>
+    <t>GS2006 수학적 사고와 증명 3:0:3 GS2007 수학적 사고의 기초 3:0:3 GS3001 해석학과 응용 3:0:3 ○ GS3012 수학적 모델링 3:3:2 　 GS3015 확률과 통계 3:0:3 ○ GS4002 복소함수학 및 응용 3:0:3 ○ GS4003 편미분방정식과 응용 3:0:3 GS4004 현대대수학 3:0:3 ○ GS4005 과학계산 프로그래밍 3:0:3 ※ 3년에 1회 개설 GS4006 정수론과 응용 3:0:3 GS4007 기하학 Ⅰ 3:0:3 GS4008 몬테카를로 방법론과 응용 3:0:3 ※ 3년에 1회 개설 GS4009 그래프 이론 3:0:3 ○ GS4010 이산수학 3:0:3 ○ GS4015 과학계산 3:0:3 ※ 3년에 1회 개설 GS4016 위상수학 개론 3:0:3 GS4017 매스매티카와 기호계산 3:1:3 GS4018 수리과학 주제를 위한 매스매티카 3:1:3 ○ GS4019 확률론 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>GS1202 일반화학 및 연습 Ⅱ 3:1:3 ○ GS1204 고급일반화학 및 연습 Ⅱ 3:1:3 GS1212 일반화학 실험 Ⅱ 0:2:1 ○ GS2204 현대화학의 이해 1:0:1 ○ GS2206 목표지향적 화학 그룹스터디 1:3:2 ○</t>
+  </si>
+  <si>
+    <t>GS1321 공학 전공생을 위한 생명과학 3:0:3 ○ GS2303 현대 생명과학의 이해 1:0:1 ○ GS2311 생명과학 실험이론 3:1:3 GS3301 세포물리생물학 3:0:2 GS3311 유전자 발현 및 분석 3:0:3 GS4301 진화생물학 및 실험 3:2:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GS1402 전기전자컴퓨터개론 3:0:3 ○ GS2407 컴퓨터 프로그램의 구조와 해석 3:0:3 GS2408 </t>
+  </si>
+  <si>
+    <t>GS1471 지구·환경연구 현장실습 0:4:2 GS2472 기후변화: 대응 및 적응 3:0:3 GS2473 지구환경공학개론 1:0:1 ○ GS2474 지속가능한 발전의 시대 3:0:3 GS2835 인간과 식물 2:0:2 GS2836 (MOOC 지정) 기후변화와 미래기술 3:0:3 GS3804 현대고급기기분석 2:2:3 GS4471 인류세의 우리 1:0:1</t>
+  </si>
+  <si>
+    <t>GS1605 실용적 대화법 3:0:2 ○ GS1606 과학 기사 읽기 3:0:2 ○ GS2651 영어 토론과 논증 3:0:2 ○ GS2653 바른 논문쓰기(이해와 토론) 3:0:2 ○</t>
+  </si>
+  <si>
+    <t>GS2654 창의적 영어 표현법 3:0:2</t>
+  </si>
+  <si>
+    <t>○ ※2020년도는 한시적으로 미개설 GS2655 디지털 시대의 저널리즘과 과학 기사 쓰기 3:0:2 ○ GS3651 영어 III. 이공계 논문쓰기 3:0:2 ○ SW선택 GS1491</t>
+  </si>
+  <si>
+    <t>PS2101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS2102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH2103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS2101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS2102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EC2203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC2100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC2101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core_math1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core_math2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core_science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core_experiment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1211</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core_english1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core_english2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1604</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2652</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>core_writing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1511</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1532</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1534</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS9301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS1901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freshman_seminar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>others1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC0202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC0203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC0301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC0901</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>others3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other_humanity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM20011) 다변수해석학과 응용 3:1:3 ○ MM2002 미분방정식과 응용 3:1:3 ○ MM2004 선형대수학과 응용 3:1:3 ○ MM20111) 고급다변수해석학과 응용 3:1:3 MM4004 현대대수학 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>필수 (II)</t>
+  </si>
+  <si>
+    <t>MM3001 해석학과 응용 3:0:3 ○ MM4002 복소함수학 및 응용 3:0:3</t>
+  </si>
+  <si>
+    <t>선택</t>
+  </si>
+  <si>
+    <t>MM2006 수학적 사고와 증명 3:0:3 MM2007 수학적 사고의 기초 3:0:3 MM3012 수학적 모델링 3:3:2 MM3015 확률과 통계 3:0:3 MM4003 편미분방정식과 응용 3:0:3 MM4005 과학계산 프로그래밍 3:0:3 ※ 3년에 1회 개설 MM4006 정수론과 응용 3:0:3 MM4007 기하학 I 3:0:3 MM4008 몬테카를로 방법론과 응용 3:0:3 ※ 3년에 1회 개설 MM4009 그래프 이론 3:0:3 ○ MM4010 이산수학 3:0:3 ○ MM4015 과학계산 3:0:3 ※ 3년에 1회 개설 MM4016 위상수학 개론 3:0:3 MM4017 매스매티카와 기호계산 I 3:1:3 ○</t>
+  </si>
+  <si>
+    <t>에너지 부전공 선택</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET2101 에너지와 미래사회 3:0:3 ○ ET4102 에너지공학 3:0:3 ○ ET4201 에너지 변환과 저장 3:0:3 ○ ET4302 스마트그리드와 전력전자 응용 3:0:3 19-1학기 ET4303 경영과학이론의 에너지시스템 응용 3:0:3 ○ ET4304 전력전자공학 3:0:3 ○ ET4305 마이크로그리드 개론 3:0:3 ○ ET4501 </t>
+  </si>
+  <si>
+    <t>MD2101 의생명공학기술 입문 ※ 의생명공학 부전공 선언자 (의무)수강 권고 3:0:3 ○ MD4101 신경과학기술 3:0:3 ○ MD4102 임상 신경 과학 3:0:3 ○ MD4301 의생명 신호처리론 3:0:3 ○ MD4302 의료영상 3:0:3 ○ MD4303 의생명 광학 3:0:3 ○ MD4501 신경과학 3:0:3 ○ MD4502 인간유전학 3:0:3 ○ MD4601 의학용어 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>문화기술 부전공</t>
+  </si>
+  <si>
+    <t>필수 (택3)</t>
+  </si>
+  <si>
+    <t>CT4501 컴퓨터 그래픽스 3:0:3 ○ CT4502 아이디어와 디지털 표현 1:4:3 ○ CT41__ 정보 시각화 방법과 디자인 사고 2:2:3</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>CT45__ 문화기술 응용을 위한 인공생명 3:0:3 19-1 학기 CT4503 인간-컴퓨터 상호작용 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>CT2501 오타쿠 대중문화론 3:0:3 CT2502 현대 예술의 이해 3:0:3 ○ CT2503 이야기 문학과 삶 3:0:3 CT2504 유토피아 픽션과 테크놀로지 3:0:3 CT4504 과학계산 프로그래밍 3:0:3 CT4506 몬테카를로 방법론과 응용 3:0:3</t>
+  </si>
+  <si>
+    <t>지능로봇 부전공</t>
+  </si>
+  <si>
+    <t>IR4201 딥 러닝 3:0:3 ○ IR4202 메카트로닉스 2:2:3 ○ IR4203 인간-컴퓨터 상호작용 3:0:3 ○ IR4204 인공지능 로봇의 법 3:0:3 ○ IR4205 로봇공학 2:2:3 ○ IR4206 인공지능 기반 창의적 로봇융합 시스템 설계 1:4:3 ○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR3201 기구동역학 2:2:3 ○ IR3202 기계전자시스템모델링 3:0:3 ○ IR3203 마이크로프로세서 및 응용 2:2:3 ○ IR3204 </t>
+  </si>
+  <si>
+    <t>MM20011) 다변수해석학과 응용 3:1:3 ○ 　 MM2002 미분방정식과 응용 3:1:3 ○ 　 MM2004 선형대수학과 응용 3:1:3 ○ 　 MM20111) 고급다변수해석학과 응용 3:1:3 　 MM4004 현대대수학 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>MM3001 해석학과 응용 3:0:3 ○ MM4002 복소함수학 및 응용 3:0:3 　</t>
+  </si>
+  <si>
+    <t>MM2006 수학적 사고와 증명 3:0:3 MM2007 수학적 사고의 기초 3:0:3 MM3012 수학적 모델링 3:3:2 MM3015 확률과 통계 3:0:3 ○ MM4003 편미분방정식과 응용 3:0:3 MM4005 과학계산 프로그래밍 3:0:3 ※ 3년에 1회 개설</t>
+  </si>
+  <si>
+    <t>MM4006 정수론과 응용 3:0:3 MM4007 기하학 I 3:0:3 MM4008 몬테카를로 방법론과 응용 3:0:3 ※ 3년에 1회 개설</t>
+  </si>
+  <si>
+    <t>MM4009 그래프 이론 3:0:3 ○ MM4010 이산수학 3:0:3 ○ MM4015 과학계산 3:0:3 ※ 3년에 1회 개설</t>
+  </si>
+  <si>
+    <t>MM4016 위상수학 개론 3:0:3 MM4017 매스매티카와 기호계산 3:1:3 ○ MM4018 수리과학 주제를 위한 매스매티카 3:1:3</t>
+  </si>
+  <si>
+    <t>에너지 부전공</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET2101 에너지와 미래사회 1:0:1 ○ ET4102 에너지공학 3:0:3 ○ ET4201 에너지 변환과 저장 3:0:3 ○ ET4302 스마트그리드와 전력전자 응용 3:0:3 ET4303 전력경제와 경영과학 3:0:3 ET4304 전력전자공학 3:0:3 ○ ET4305 신재생에너지와 마이크로그리드 3:0:3 ○ ET4501 </t>
+  </si>
+  <si>
+    <t>MD2101</t>
+  </si>
+  <si>
+    <t>의공학 입문 ※ 의생명공학 부전공 선언자 (의무)수강 권고</t>
+  </si>
+  <si>
+    <t>MD4101 신경과학기술 3:0:3 MD4102 임상 신경 과학 3:0:3 MD4301 의생명 신호처리론 3:0:3 ○ MD4302 의료영상 3:0:3 MD4303 의생명 광학 3:0:3 ○ MD4501 신경과학 3:0:3 ○ MD4502 인간유전학 3:0:3 ○ MD4601 의학용어 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>CT4101 아이디어와 디지털 표현 1:4:3 CT4201 컴퓨터 그래픽스 3:0:3 ○ CT4301 인간-컴퓨터 상호작용 3:0:3 ○ CT4302 문화기술을 위한 인공지능 설계 3:0:3 ○</t>
+  </si>
+  <si>
+    <t>CT2501 오타쿠 대중문화론 3:0:3 CT2502 현대 예술의 이해 3:0:3 ○ CT2503 이야기 문학과 삶 3:0:3 CT2504 유토피아 픽션과 테크놀로지 3:0:3 CT2505 과학기술과 사회: 두 문화의 이해 3:0:3 CT4504 과학계산 프로그래밍 3:0:3 CT4506 몬테카를로 방법론과 응용 3:0:3</t>
+  </si>
+  <si>
+    <t>IR4201 딥 러닝 3:0:3 ○ IR4202 메카트로닉스 2:2:3 IR4203 인간-컴퓨터 상호작용 3:0:3 ○ IR4204 인공지능 로봇의 법 3:0:3 ○ IR4205 로봇공학 2:2:3 ○ IR4206 인공지능 기반 창의적 로봇융합 시스템 설계 1:4:3 ○</t>
+  </si>
+  <si>
+    <t>IR3201 기구동역학 2:2:3 ○ IR3202 기계전자시스템모델링 3:0:3 ○ IR3203 마이크로프로세서 및 응용 2:2:3 ○ IR4207 자동제어 3:0:3 ○ IR4208</t>
+  </si>
+  <si>
+    <t>MM2006 수학적 사고와 증명 3:0:3 MM2007 수학적 사고의 기초 3:0:3 MM3012 수학적 모델링 3:3:2 MM3015 확률과 통계 3:0:3 ○ MM4003 편미분방정식과 응용 3:0:3 MM4005 과학계산 프로그래밍 3:0:3 ※ 3년에 1회 개설 MM4006 정수론과 응용 3:0:3 ※ 2년에 1회 개설 MM4007 기하학 I 3:0:3 ※ 2년에 1회 개설 MM4008 몬테카를로 방법론과 응용 3:0:3 ※ 3년에 1회 개설 MM4009 그래프 이론 3:0:3 ○ MM4010 이산수학 3:0:3 ○ MM4015 과학계산 3:0:3 ※ 3년에 1회 개설 MM4016 위상수학 개론 3:0:3 ※ 2년에 1회 개설 MM4017 매스매티카와 기호계산 3:1:3 ○ MM4018 수리과학 주제를 위한 매스매티카 3:1:3 MM4019 확률론 3:0:3 ※ 2년에 1회 개설</t>
+  </si>
+  <si>
+    <t>의생명 공학 부전공</t>
+  </si>
+  <si>
+    <t>MD4101 신경과학기술 3:0:3 MD4102 임상 신경 과학 3:0:3 MD4301 의생명 신호처리론 3:0:3 ○ MD4302 의료영상 3:0:3 MD4303 의생명 광학 3:0:3 ○ MD4501 신경과학 3:0:3 ○ MD4502 인간유전학 3:0:3 ○ MD4601</t>
+  </si>
+  <si>
+    <t>CT2501 오타쿠 대중문화론 3:0:3 CT2502 현대 예술의 이해 3:0:3 ○ CT2503 이야기 문학과 삶 3:0:3 CT2504 유토피아 픽션과 테크놀로지 3:0:3 CT2505 과학기술과 사회: 두 문화의 이해 3:0:3 CT2506 신화와 원형상징 3:0:3 CT4504 과학계산 프로그래밍 3:0:3 CT4506 몬테카를로 방법론과 응용 3:0:3</t>
+  </si>
+  <si>
+    <t>ET2101 에너지와 미래사회 1:0:1 ○ ET4102 에너지공학 3:0:3 ○ ET4201 에너지 변환과 저장 3:0:3 ○ ET4302 스마트그리드와 전력전자 응용 3:0:3 ET4303 전력경제와 경영과학 3:0:3 ET4304 전력전자공학 3:0:3 ○ ET4306 전력시스템공학 3:0:3 ET4501 태양전지의 이해 3:0:3 ○</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IR2201 회로이론 3:0:3 IR2202 동역학 3:0:3 IR3202 기계전자시스템모델링 3:0:3 ○ IR3203 마이크로프로세서 및 응용 2:2:3 ○ IR4207 자동제어 3:0:3 ○ IR4208 로봇 운동학 3:0:3 ○ IR4209 </t>
   </si>
 </sst>
 </file>
@@ -665,8 +1241,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -949,684 +1528,1778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:AG202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" t="s">
-        <v>171</v>
-      </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>325</v>
       </c>
       <c r="L1" t="s">
+        <v>324</v>
+      </c>
+      <c r="M1" t="s">
         <v>172</v>
-      </c>
-      <c r="M1" t="s">
-        <v>180</v>
       </c>
       <c r="N1" t="s">
         <v>173</v>
       </c>
       <c r="O1" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>176</v>
+      </c>
+      <c r="R1" t="s">
+        <v>165</v>
+      </c>
+      <c r="S1" t="s">
+        <v>158</v>
+      </c>
+      <c r="T1" t="s">
+        <v>166</v>
+      </c>
+      <c r="U1" t="s">
+        <v>159</v>
+      </c>
+      <c r="V1" t="s">
+        <v>167</v>
+      </c>
+      <c r="W1" t="s">
+        <v>160</v>
+      </c>
+      <c r="X1" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" t="s">
+        <v>270</v>
+      </c>
+      <c r="O2" t="s">
+        <v>272</v>
+      </c>
+      <c r="P2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R2" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" t="s">
+        <v>75</v>
+      </c>
+      <c r="X2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF2">
+        <v>9102</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" t="s">
+        <v>269</v>
+      </c>
+      <c r="N3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P3" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>278</v>
+      </c>
+      <c r="R3" t="s">
+        <v>93</v>
+      </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF3">
+        <v>9103</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>179</v>
+      </c>
+      <c r="P4" t="s">
+        <v>276</v>
+      </c>
+      <c r="R4" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" t="s">
+        <v>95</v>
+      </c>
+      <c r="T4" t="s">
+        <v>114</v>
+      </c>
+      <c r="U4" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" t="s">
+        <v>101</v>
+      </c>
+      <c r="X4" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF4">
+        <v>9104</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>180</v>
+      </c>
+      <c r="R5" t="s">
+        <v>124</v>
+      </c>
+      <c r="S5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" t="s">
+        <v>128</v>
+      </c>
+      <c r="U5" t="s">
+        <v>129</v>
+      </c>
+      <c r="V5" t="s">
+        <v>130</v>
+      </c>
+      <c r="W5" t="s">
+        <v>116</v>
+      </c>
+      <c r="X5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G6" t="s">
+        <v>311</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" t="s">
         <v>181</v>
       </c>
-      <c r="P1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="R6" t="s">
+        <v>142</v>
+      </c>
+      <c r="S6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="s">
+        <v>143</v>
+      </c>
+      <c r="U6" t="s">
+        <v>144</v>
+      </c>
+      <c r="V6" t="s">
+        <v>130</v>
+      </c>
+      <c r="W6" t="s">
+        <v>131</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G7" t="s">
+        <v>312</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S7" t="s">
+        <v>113</v>
+      </c>
+      <c r="W7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G8" t="s">
+        <v>313</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
         <v>182</v>
       </c>
-      <c r="R1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="S8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" t="s">
+        <v>180</v>
+      </c>
+      <c r="S9" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" t="s">
         <v>183</v>
       </c>
-      <c r="T1" t="s">
+      <c r="S10" t="s">
+        <v>96</v>
+      </c>
+      <c r="W10" t="s">
+        <v>146</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
         <v>184</v>
       </c>
-      <c r="U1" t="s">
+      <c r="S11" t="s">
+        <v>127</v>
+      </c>
+      <c r="W11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
         <v>185</v>
       </c>
-      <c r="V1" t="s">
+      <c r="S12" t="s">
+        <v>125</v>
+      </c>
+      <c r="W12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
         <v>186</v>
       </c>
-      <c r="W1" t="s">
+      <c r="S13" t="s">
+        <v>126</v>
+      </c>
+      <c r="W13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" t="s">
         <v>187</v>
       </c>
-      <c r="X1" t="s">
+      <c r="S14" t="s">
+        <v>96</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" t="s">
         <v>188</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="S15" t="s">
+        <v>127</v>
+      </c>
+      <c r="W15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" t="s">
-        <v>96</v>
-      </c>
-      <c r="S2" t="s">
-        <v>162</v>
-      </c>
-      <c r="T2" t="s">
-        <v>163</v>
-      </c>
-      <c r="U2" t="s">
-        <v>164</v>
-      </c>
-      <c r="W2" t="s">
-        <v>168</v>
-      </c>
-      <c r="X2" t="s">
-        <v>166</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" t="s">
-        <v>116</v>
-      </c>
-      <c r="V3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M4" t="s">
-        <v>123</v>
-      </c>
-      <c r="N4" t="s">
-        <v>85</v>
-      </c>
-      <c r="O4" t="s">
-        <v>109</v>
-      </c>
-      <c r="P4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H5" t="s">
-        <v>133</v>
-      </c>
-      <c r="I5" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" t="s">
-        <v>140</v>
-      </c>
-      <c r="N5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O5" t="s">
-        <v>142</v>
-      </c>
-      <c r="P5" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>94</v>
-      </c>
-      <c r="R5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" t="s">
-        <v>101</v>
-      </c>
-      <c r="G6" t="s">
-        <v>147</v>
-      </c>
-      <c r="H6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>156</v>
-      </c>
-      <c r="M6" t="s">
-        <v>157</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" t="s">
-        <v>142</v>
-      </c>
-      <c r="P6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>95</v>
-      </c>
-      <c r="R6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J8" t="s">
-        <v>137</v>
-      </c>
-      <c r="N8" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" t="s">
-        <v>149</v>
-      </c>
-      <c r="N9" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s">
-        <v>150</v>
-      </c>
-      <c r="N10" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" t="s">
-        <v>131</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="W16" t="s">
         <v>151</v>
       </c>
-      <c r="N11" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>130</v>
-      </c>
-      <c r="J13" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
         <v>56</v>
       </c>
-      <c r="J16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="L17" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="L20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+      <c r="K22" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="L24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J27" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="L27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
+      <c r="L28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="K29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
+      <c r="L29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="K30" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>70</v>
+      <c r="L30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="L31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="L32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L36" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L44" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="45" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L51" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L52" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="53" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L53" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L57" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="58" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L58" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L60" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="61" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L63" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L65" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="66" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L66" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L71" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L72" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L73" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="74" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L74" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="75" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L75" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L78" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="79" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L79" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L80" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="81" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L81" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L84" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L85" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L87" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L88" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L89" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L90" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="91" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L91" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="92" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L92" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="93" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L93" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="94" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L94" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="95" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L95" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="96" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L96" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L97" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="98" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="99" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L99" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L100" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L101" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="102" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L102" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="103" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L104" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="105" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L105" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="106" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L106" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="107" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L107" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="108" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L108" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L109" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="110" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L110" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="111" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L111" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="112" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L112" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="113" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L113" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="114" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L115" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="116" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L116" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="117" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L117" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L118" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L119" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L120" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L121" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L122" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="123" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L123" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="124" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L124" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="125" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L125" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="126" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L126" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L127" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="128" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L128" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L131" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L132" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L134" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="135" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L135" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="136" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L136" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L137" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L138" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L139" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="140" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L140" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="141" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L141" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L142" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L143" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L144" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L145" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L146" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L147" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="148" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L148" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="149" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L149" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="150" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L150" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="151" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L151" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="152" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L152" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="153" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L153" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="154" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L154" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="155" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L155" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="156" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L156" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="157" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L157" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="158" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L158" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="159" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L159" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L160" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="161" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L161" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="162" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L162" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="163" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L163" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L164" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="165" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L166" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="167" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L167" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="168" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L168" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="169" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L169" s="1">
+        <v>8.335648148148149E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L170" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="171" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L171" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="172" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L172" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="173" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L173" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="174" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L174" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="175" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L175" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="176" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L176" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="177" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L177" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="178" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L178" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="179" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L179" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="180" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L180" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="181" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L181" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="182" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L182" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="183" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L183" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="184" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L184" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="185" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L185" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="186" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L186" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="187" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L187" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="188" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L188" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="189" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L189" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="190" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L190" s="1">
+        <v>8.335648148148149E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L191" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="192" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L192" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="193" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L193" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="194" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L194" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="195" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L195" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="196" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L196" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="197" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L197" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="198" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L198" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="199" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L199" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="200" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L200" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="201" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L201" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="202" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L202" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="365">
   <si>
     <t>HUS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1196,6 +1196,10 @@
   </si>
   <si>
     <t xml:space="preserve">IR2201 회로이론 3:0:3 IR2202 동역학 3:0:3 IR3202 기계전자시스템모델링 3:0:3 ○ IR3203 마이크로프로세서 및 응용 2:2:3 ○ IR4207 자동제어 3:0:3 ○ IR4208 로봇 운동학 3:0:3 ○ IR4209 </t>
+  </si>
+  <si>
+    <t>GS1103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1531,7 +1535,7 @@
   <dimension ref="A1:AG202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1746,7 +1750,7 @@
         <v>284</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>364</v>
       </c>
       <c r="D3" t="s">
         <v>298</v>
